--- a/Assets/Resources/DataBase/Excel/Skill_Table.xlsx
+++ b/Assets/Resources/DataBase/Excel/Skill_Table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choij\Desktop\Daedomumun\Assets\Resources\DataBase\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26A6983B-C225-4872-A009-5DA07CBECCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70535A3-A73C-4431-A357-02FCF8D48F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="2835" windowWidth="20610" windowHeight="10200" xr2:uid="{358E76EA-6218-49AC-AA54-129B02869285}"/>
+    <workbookView xWindow="5070" yWindow="6675" windowWidth="20610" windowHeight="10200" activeTab="1" xr2:uid="{358E76EA-6218-49AC-AA54-129B02869285}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Active" sheetId="1" r:id="rId1"/>
+    <sheet name="Passive" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,22 +63,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>110001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>폭렬장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>120001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>130001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비룡각</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>110002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>질풍권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,11 +87,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DMG(STR*4,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMG(STR*2,1)&amp;STUN(1,100%)</t>
+    <t>10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호권법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK(BURN(1,51%))</t>
+  </si>
+  <si>
+    <t>현무권법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CON120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UP(CON(25))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작장법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡각법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEX120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK(DMG(DEX*0.1))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK(DMG(STR*0.5))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMG(STR*4,1)&amp;STUN(1,100%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMG(STR*8,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,14 +544,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5848571-8D03-4823-B3F6-8BF2C926A2C7}">
   <dimension ref="A1:E5"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFC413F-7C50-48D2-9542-A20733598B57}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -494,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -505,70 +682,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/DataBase/Excel/Skill_Table.xlsx
+++ b/Assets/Resources/DataBase/Excel/Skill_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choij\Desktop\Daedomumun\Assets\Resources\DataBase\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70535A3-A73C-4431-A357-02FCF8D48F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243609A5-9964-4212-9085-45291F873EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="6675" windowWidth="20610" windowHeight="10200" activeTab="1" xr2:uid="{358E76EA-6218-49AC-AA54-129B02869285}"/>
+    <workbookView xWindow="345" yWindow="2100" windowWidth="14880" windowHeight="10200" activeTab="1" xr2:uid="{358E76EA-6218-49AC-AA54-129B02869285}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -79,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DMG(DEX*0.5,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMG(DEX*1,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,9 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ATK(BURN(1,51%))</t>
-  </si>
-  <si>
     <t>현무권법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,23 +147,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ATK(DMG(DEX*0.1))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK(DMG(STR*0.5))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMG(STR*4,1)&amp;STUN(1,100%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMG(STR*8,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMG(DEX,1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMG(STR,8,1))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMG(DEX,0.5,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMG(STR,4,1))&amp;STUN(1,100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK(DMG(STR,0.5))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK(BURN(1,50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK(DMG(DEX,0.1))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +546,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,7 +575,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -586,12 +587,12 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -603,12 +604,12 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -620,12 +621,12 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -637,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +653,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -682,70 +683,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
